--- a/wyniki/2.xlsx
+++ b/wyniki/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>Maksymalny wynik</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Nazwa Pliku i rozdział</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wynik</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Maksymalny Wynik</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,14 +499,15 @@
           <t>Częstochowy, broni</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,14 +518,17 @@
           <t>Panno, święta, co, jasnej, bronisz</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,13 +549,49 @@
           <t>panno</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E4" t="n">
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>do, zachowania, pędu, jest, napęd, rakietowy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>zasady</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rakietowy, do, napęd, zachowania, jest, pędu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TAYLOR__Mechanika.wav_segment_1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
